--- a/Codigo/vrms-sampling/toma2.xlsx
+++ b/Codigo/vrms-sampling/toma2.xlsx
@@ -161,6 +161,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="511721971"/>
@@ -1489,7 +1497,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1500,10 +1508,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>A1*A1</f>
+        <f t="shared" ref="B1:B9" si="0">A1*A1</f>
         <v>0</v>
       </c>
       <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
         <v>0</v>
       </c>
     </row>
@@ -1512,11 +1526,17 @@
         <v>56.68</v>
       </c>
       <c r="B2">
-        <f>A2*A2</f>
+        <f t="shared" si="0"/>
         <v>3212.6223999999997</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1524,11 +1544,17 @@
         <v>89.780000000000001</v>
       </c>
       <c r="B3">
-        <f>A3*A3</f>
+        <f t="shared" si="0"/>
         <v>8060.4484000000002</v>
       </c>
       <c r="C3">
         <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>800</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1536,11 +1562,17 @@
         <v>123.11</v>
       </c>
       <c r="B4">
-        <f>A4*A4</f>
+        <f t="shared" si="0"/>
         <v>15156.072099999999</v>
       </c>
       <c r="C4">
         <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1200</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1548,11 +1580,17 @@
         <v>154.16</v>
       </c>
       <c r="B5">
-        <f>A5*A5</f>
+        <f t="shared" si="0"/>
         <v>23765.3056</v>
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1600</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -1560,11 +1598,17 @@
         <v>184.87</v>
       </c>
       <c r="B6">
-        <f>A6*A6</f>
+        <f t="shared" si="0"/>
         <v>34176.916900000004</v>
       </c>
       <c r="C6">
         <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -1572,11 +1616,17 @@
         <v>214.66</v>
       </c>
       <c r="B7">
-        <f>A7*A7</f>
+        <f t="shared" si="0"/>
         <v>46078.9156</v>
       </c>
       <c r="C7">
         <v>0</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2400</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -1584,11 +1634,17 @@
         <v>245.49000000000001</v>
       </c>
       <c r="B8">
-        <f>A8*A8</f>
+        <f t="shared" si="0"/>
         <v>60265.340100000001</v>
       </c>
       <c r="C8">
         <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2800</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -1596,11 +1652,17 @@
         <v>264.37</v>
       </c>
       <c r="B9">
-        <f>A9*A9</f>
+        <f t="shared" si="0"/>
         <v>69891.496899999998</v>
       </c>
       <c r="C9">
         <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3200</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -1608,11 +1670,17 @@
         <v>283.25</v>
       </c>
       <c r="B10">
-        <f>A10*A10</f>
+        <f t="shared" ref="B10:B50" si="1">A10*A10</f>
         <v>80230.5625</v>
       </c>
       <c r="C10">
         <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>3600</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -1620,11 +1688,17 @@
         <v>294.05000000000001</v>
       </c>
       <c r="B11">
-        <f>A11*A11</f>
+        <f t="shared" si="1"/>
         <v>86465.402500000011</v>
       </c>
       <c r="C11">
         <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -1632,11 +1706,17 @@
         <v>307.36000000000001</v>
       </c>
       <c r="B12">
-        <f>A12*A12</f>
+        <f t="shared" si="1"/>
         <v>94470.169600000008</v>
       </c>
       <c r="C12">
         <v>0</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>4400</v>
       </c>
     </row>
     <row r="13" ht="14.25">
@@ -1644,11 +1724,17 @@
         <v>315.55000000000001</v>
       </c>
       <c r="B13">
-        <f>A13*A13</f>
+        <f t="shared" si="1"/>
         <v>99571.802500000005</v>
       </c>
       <c r="C13">
         <v>0</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>4800</v>
       </c>
     </row>
     <row r="14" ht="14.25">
@@ -1656,11 +1742,17 @@
         <v>320.20999999999998</v>
       </c>
       <c r="B14">
-        <f>A14*A14</f>
+        <f t="shared" si="1"/>
         <v>102534.44409999999</v>
       </c>
       <c r="C14">
         <v>0</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>5200</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -1668,11 +1760,17 @@
         <v>322.60000000000002</v>
       </c>
       <c r="B15">
-        <f>A15*A15</f>
+        <f t="shared" si="1"/>
         <v>104070.76000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>5600</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -1680,11 +1778,17 @@
         <v>324.42000000000002</v>
       </c>
       <c r="B16">
-        <f>A16*A16</f>
+        <f t="shared" si="1"/>
         <v>105248.33640000001</v>
       </c>
       <c r="C16">
         <v>0</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>6000</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1692,11 +1796,17 @@
         <v>325.11000000000001</v>
       </c>
       <c r="B17">
-        <f>A17*A17</f>
+        <f t="shared" si="1"/>
         <v>105696.51210000001</v>
       </c>
       <c r="C17">
         <v>0</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>6400</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -1704,11 +1814,17 @@
         <v>323.50999999999999</v>
       </c>
       <c r="B18">
-        <f>A18*A18</f>
+        <f t="shared" si="1"/>
         <v>104658.72009999999</v>
       </c>
       <c r="C18">
         <v>0</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>6800</v>
       </c>
     </row>
     <row r="19" ht="14.25">
@@ -1716,11 +1832,17 @@
         <v>283.36000000000001</v>
       </c>
       <c r="B19">
-        <f>A19*A19</f>
+        <f t="shared" si="1"/>
         <v>80292.88960000001</v>
       </c>
       <c r="C19">
         <v>0</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>7200</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1728,11 +1850,17 @@
         <v>237.30000000000001</v>
       </c>
       <c r="B20">
-        <f>A20*A20</f>
+        <f t="shared" si="1"/>
         <v>56311.290000000008</v>
       </c>
       <c r="C20">
         <v>0</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>7600</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -1740,12 +1868,18 @@
         <v>198.86000000000001</v>
       </c>
       <c r="B21" s="1">
-        <f>A21*A21</f>
+        <f t="shared" si="1"/>
         <v>39545.299600000006</v>
       </c>
       <c r="C21">
-        <f>A21*A21</f>
+        <f t="shared" ref="C21:C50" si="2">A21*A21</f>
         <v>39545.299600000006</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>8000</v>
       </c>
     </row>
     <row r="22" ht="14.25">
@@ -1753,12 +1887,18 @@
         <v>172.69999999999999</v>
       </c>
       <c r="B22" s="1">
-        <f>A22*A22</f>
+        <f t="shared" si="1"/>
         <v>29825.289999999997</v>
       </c>
       <c r="C22" s="2">
-        <f>A22*A22</f>
+        <f t="shared" si="2"/>
         <v>29825.289999999997</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>8400</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -1766,12 +1906,18 @@
         <v>131.97999999999999</v>
       </c>
       <c r="B23" s="1">
-        <f>A23*A23</f>
+        <f t="shared" si="1"/>
         <v>17418.720399999998</v>
       </c>
       <c r="C23" s="2">
-        <f>A23*A23</f>
+        <f t="shared" si="2"/>
         <v>17418.720399999998</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>8800</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -1779,12 +1925,18 @@
         <v>81.019999999999996</v>
       </c>
       <c r="B24" s="1">
-        <f>A24*A24</f>
+        <f t="shared" si="1"/>
         <v>6564.2403999999997</v>
       </c>
       <c r="C24" s="2">
-        <f>A24*A24</f>
+        <f t="shared" si="2"/>
         <v>6564.2403999999997</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>9200</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -1792,12 +1944,18 @@
         <v>35.75</v>
       </c>
       <c r="B25" s="1">
-        <f>A25*A25</f>
+        <f t="shared" si="1"/>
         <v>1278.0625</v>
       </c>
       <c r="C25" s="2">
-        <f>A25*A25</f>
+        <f t="shared" si="2"/>
         <v>1278.0625</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>9600</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -1805,11 +1963,17 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <f>A26*A26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>10000</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -1817,11 +1981,17 @@
         <v>56.799999999999997</v>
       </c>
       <c r="B27">
-        <f>A27*A27</f>
+        <f t="shared" si="1"/>
         <v>3226.2399999999998</v>
       </c>
       <c r="C27">
         <v>0</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>10400</v>
       </c>
     </row>
     <row r="28" ht="14.25">
@@ -1829,11 +1999,17 @@
         <v>89.890000000000001</v>
       </c>
       <c r="B28">
-        <f>A28*A28</f>
+        <f t="shared" si="1"/>
         <v>8080.2120999999997</v>
       </c>
       <c r="C28">
         <v>0</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>10800</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -1841,11 +2017,17 @@
         <v>123.67</v>
       </c>
       <c r="B29">
-        <f>A29*A29</f>
+        <f t="shared" si="1"/>
         <v>15294.268900000001</v>
       </c>
       <c r="C29">
         <v>0</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>11200</v>
       </c>
     </row>
     <row r="30" ht="14.25">
@@ -1853,11 +2035,17 @@
         <v>154.84</v>
       </c>
       <c r="B30">
-        <f>A30*A30</f>
+        <f t="shared" si="1"/>
         <v>23975.425600000002</v>
       </c>
       <c r="C30">
         <v>0</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>11600</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -1865,11 +2053,17 @@
         <v>185.78</v>
       </c>
       <c r="B31">
-        <f>A31*A31</f>
+        <f t="shared" si="1"/>
         <v>34514.208400000003</v>
       </c>
       <c r="C31">
         <v>0</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>12000</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -1877,11 +2071,17 @@
         <v>214.78</v>
       </c>
       <c r="B32">
-        <f>A32*A32</f>
+        <f t="shared" si="1"/>
         <v>46130.448400000001</v>
       </c>
       <c r="C32">
         <v>0</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>12400</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -1889,11 +2089,17 @@
         <v>246.16999999999999</v>
       </c>
       <c r="B33">
-        <f>A33*A33</f>
+        <f t="shared" si="1"/>
         <v>60599.668899999997</v>
       </c>
       <c r="C33">
         <v>0</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>12800</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -1901,11 +2107,17 @@
         <v>264.37</v>
       </c>
       <c r="B34">
-        <f>A34*A34</f>
+        <f t="shared" si="1"/>
         <v>69891.496899999998</v>
       </c>
       <c r="C34">
         <v>0</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>13200</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -1913,11 +2125,17 @@
         <v>283.13999999999999</v>
       </c>
       <c r="B35">
-        <f>A35*A35</f>
+        <f t="shared" si="1"/>
         <v>80168.25959999999</v>
       </c>
       <c r="C35">
         <v>0</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>13600</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -1925,11 +2143,17 @@
         <v>293.60000000000002</v>
       </c>
       <c r="B36">
-        <f>A36*A36</f>
+        <f t="shared" si="1"/>
         <v>86200.960000000006</v>
       </c>
       <c r="C36">
         <v>0</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>14000</v>
       </c>
     </row>
     <row r="37" ht="14.25">
@@ -1937,11 +2161,17 @@
         <v>307.13</v>
       </c>
       <c r="B37">
-        <f>A37*A37</f>
+        <f t="shared" si="1"/>
         <v>94328.836899999995</v>
       </c>
       <c r="C37">
         <v>0</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>14400</v>
       </c>
     </row>
     <row r="38" ht="14.25">
@@ -1949,11 +2179,17 @@
         <v>315.66000000000003</v>
       </c>
       <c r="B38">
-        <f>A38*A38</f>
+        <f t="shared" si="1"/>
         <v>99641.235600000015</v>
       </c>
       <c r="C38">
         <v>0</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>14800</v>
       </c>
     </row>
     <row r="39" ht="14.25">
@@ -1961,11 +2197,17 @@
         <v>320.89999999999998</v>
       </c>
       <c r="B39">
-        <f>A39*A39</f>
+        <f t="shared" si="1"/>
         <v>102976.80999999998</v>
       </c>
       <c r="C39">
         <v>0</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>15200</v>
       </c>
     </row>
     <row r="40" ht="14.25">
@@ -1973,11 +2215,17 @@
         <v>322.82999999999998</v>
       </c>
       <c r="B40">
-        <f>A40*A40</f>
+        <f t="shared" si="1"/>
         <v>104219.20889999998</v>
       </c>
       <c r="C40">
         <v>0</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>15600</v>
       </c>
     </row>
     <row r="41" ht="14.25">
@@ -1985,11 +2233,17 @@
         <v>324.42000000000002</v>
       </c>
       <c r="B41">
-        <f>A41*A41</f>
+        <f t="shared" si="1"/>
         <v>105248.33640000001</v>
       </c>
       <c r="C41">
         <v>0</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>16000</v>
       </c>
     </row>
     <row r="42" ht="14.25">
@@ -1997,11 +2251,17 @@
         <v>324.75999999999999</v>
       </c>
       <c r="B42">
-        <f>A42*A42</f>
+        <f t="shared" si="1"/>
         <v>105469.0576</v>
       </c>
       <c r="C42">
         <v>0</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>16400</v>
       </c>
     </row>
     <row r="43" ht="14.25">
@@ -2009,11 +2269,17 @@
         <v>323.17000000000002</v>
       </c>
       <c r="B43">
-        <f>A43*A43</f>
+        <f t="shared" si="1"/>
         <v>104438.84890000001</v>
       </c>
       <c r="C43">
         <v>0</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>16800</v>
       </c>
     </row>
     <row r="44" ht="14.25">
@@ -2021,11 +2287,17 @@
         <v>282.23000000000002</v>
       </c>
       <c r="B44">
-        <f>A44*A44</f>
+        <f t="shared" si="1"/>
         <v>79653.772900000011</v>
       </c>
       <c r="C44">
         <v>0</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>17200</v>
       </c>
     </row>
     <row r="45" ht="14.25">
@@ -2033,11 +2305,17 @@
         <v>236.5</v>
       </c>
       <c r="B45">
-        <f>A45*A45</f>
+        <f t="shared" si="1"/>
         <v>55932.25</v>
       </c>
       <c r="C45">
         <v>0</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>17600</v>
       </c>
     </row>
     <row r="46" ht="14.25">
@@ -2045,12 +2323,18 @@
         <v>198.06</v>
       </c>
       <c r="B46" s="1">
-        <f>A46*A46</f>
+        <f t="shared" si="1"/>
         <v>39227.763599999998</v>
       </c>
       <c r="C46">
-        <f>A46*A46</f>
+        <f t="shared" si="2"/>
         <v>39227.763599999998</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>18000</v>
       </c>
     </row>
     <row r="47" ht="14.25">
@@ -2058,12 +2342,18 @@
         <v>171.44</v>
       </c>
       <c r="B47" s="1">
-        <f>A47*A47</f>
+        <f t="shared" si="1"/>
         <v>29391.673599999998</v>
       </c>
       <c r="C47">
-        <f>A47*A47</f>
+        <f t="shared" si="2"/>
         <v>29391.673599999998</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <v>18400</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -2071,12 +2361,18 @@
         <v>131.63999999999999</v>
       </c>
       <c r="B48" s="1">
-        <f>A48*A48</f>
+        <f t="shared" si="1"/>
         <v>17329.089599999996</v>
       </c>
       <c r="C48">
-        <f>A48*A48</f>
+        <f t="shared" si="2"/>
         <v>17329.089599999996</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>18800</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -2084,12 +2380,18 @@
         <v>81.019999999999996</v>
       </c>
       <c r="B49" s="1">
-        <f>A49*A49</f>
+        <f t="shared" si="1"/>
         <v>6564.2403999999997</v>
       </c>
       <c r="C49">
-        <f>A49*A49</f>
+        <f t="shared" si="2"/>
         <v>6564.2403999999997</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>19200</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -2097,12 +2399,18 @@
         <v>0</v>
       </c>
       <c r="B50" s="1">
-        <f>A50*A50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C50">
-        <f>A50*A50</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50">
+        <v>19600</v>
       </c>
     </row>
     <row r="51" ht="14.25"/>
